--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44281</v>
       </c>
       <c r="B2" t="n">
-        <v>-454.1338456841191</v>
+        <v>-421.0191599010259</v>
       </c>
       <c r="C2" t="n">
-        <v>-491.631972301519</v>
+        <v>-458.8154363082332</v>
       </c>
       <c r="D2" t="n">
-        <v>-421.0280095893324</v>
+        <v>-386.5318883776739</v>
       </c>
       <c r="E2" t="n">
         <v>424</v>
@@ -496,13 +496,13 @@
         <v>44288</v>
       </c>
       <c r="B3" t="n">
-        <v>294.7834516412584</v>
+        <v>299.6442578474015</v>
       </c>
       <c r="C3" t="n">
-        <v>251.9260046968628</v>
+        <v>257.0302331260244</v>
       </c>
       <c r="D3" t="n">
-        <v>337.2906945178836</v>
+        <v>342.3689712826461</v>
       </c>
       <c r="E3" t="n">
         <v>232</v>
@@ -516,13 +516,13 @@
         <v>44292</v>
       </c>
       <c r="B4" t="n">
-        <v>-241.899817016615</v>
+        <v>-280.768468292982</v>
       </c>
       <c r="C4" t="n">
-        <v>-283.8691747718862</v>
+        <v>-324.6720069158266</v>
       </c>
       <c r="D4" t="n">
-        <v>-199.9010134522625</v>
+        <v>-238.693532516852</v>
       </c>
       <c r="E4" t="n">
         <v>192</v>
@@ -536,13 +536,13 @@
         <v>44299</v>
       </c>
       <c r="B5" t="n">
-        <v>428.1467783126541</v>
+        <v>278.7282080359773</v>
       </c>
       <c r="C5" t="n">
-        <v>382.0693695846766</v>
+        <v>232.4839813070417</v>
       </c>
       <c r="D5" t="n">
-        <v>476.5320086689069</v>
+        <v>327.754471131153</v>
       </c>
       <c r="E5" t="n">
         <v>72</v>
@@ -556,13 +556,13 @@
         <v>44306</v>
       </c>
       <c r="B6" t="n">
-        <v>345.648406211008</v>
+        <v>724.0121846863741</v>
       </c>
       <c r="C6" t="n">
-        <v>300.4149926554522</v>
+        <v>674.3085290397028</v>
       </c>
       <c r="D6" t="n">
-        <v>392.3646077588961</v>
+        <v>773.4139781978059</v>
       </c>
       <c r="E6" t="n">
         <v>224</v>
@@ -576,13 +576,13 @@
         <v>44313</v>
       </c>
       <c r="B7" t="n">
-        <v>417.5095196430171</v>
+        <v>501.1339318064076</v>
       </c>
       <c r="C7" t="n">
-        <v>370.0916951975802</v>
+        <v>451.1234183241002</v>
       </c>
       <c r="D7" t="n">
-        <v>462.8735607979273</v>
+        <v>555.845674769869</v>
       </c>
       <c r="E7" t="n">
         <v>328</v>
@@ -596,13 +596,13 @@
         <v>44320</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.54358976137749</v>
+        <v>-235.9636716120141</v>
       </c>
       <c r="C8" t="n">
-        <v>-53.44869595520765</v>
+        <v>-285.6590575359627</v>
       </c>
       <c r="D8" t="n">
-        <v>35.59601146288501</v>
+        <v>-187.5617727503387</v>
       </c>
       <c r="E8" t="n">
         <v>184</v>
@@ -616,13 +616,13 @@
         <v>44327</v>
       </c>
       <c r="B9" t="n">
-        <v>-275.1829081073166</v>
+        <v>-508.9907132288262</v>
       </c>
       <c r="C9" t="n">
-        <v>-323.2803965246149</v>
+        <v>-561.5212527360646</v>
       </c>
       <c r="D9" t="n">
-        <v>-227.6713764448118</v>
+        <v>-461.2150883273821</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -636,13 +636,13 @@
         <v>44344</v>
       </c>
       <c r="B10" t="n">
-        <v>789.2158902794409</v>
+        <v>295.9491884702573</v>
       </c>
       <c r="C10" t="n">
-        <v>744.7119113070936</v>
+        <v>241.5597889621419</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1743661522074</v>
+        <v>347.7502379521129</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -656,13 +656,13 @@
         <v>44386</v>
       </c>
       <c r="B11" t="n">
-        <v>194.5530636792201</v>
+        <v>119.0565569666364</v>
       </c>
       <c r="C11" t="n">
-        <v>144.9075454995781</v>
+        <v>67.11741287930938</v>
       </c>
       <c r="D11" t="n">
-        <v>240.6103082542789</v>
+        <v>171.4560714509893</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -676,13 +676,13 @@
         <v>44414</v>
       </c>
       <c r="B12" t="n">
-        <v>-10.18138893045858</v>
+        <v>-38.67744539435873</v>
       </c>
       <c r="C12" t="n">
-        <v>-59.66806734986651</v>
+        <v>-91.34121942642926</v>
       </c>
       <c r="D12" t="n">
-        <v>42.67416471368822</v>
+        <v>13.05176370999674</v>
       </c>
       <c r="E12" t="n">
         <v>144</v>
@@ -696,13 +696,13 @@
         <v>44418</v>
       </c>
       <c r="B13" t="n">
-        <v>56.02188510639564</v>
+        <v>46.99048193571863</v>
       </c>
       <c r="C13" t="n">
-        <v>2.10404116166074</v>
+        <v>-13.05005537598727</v>
       </c>
       <c r="D13" t="n">
-        <v>109.9677257930546</v>
+        <v>101.0755773334039</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -716,13 +716,13 @@
         <v>44428</v>
       </c>
       <c r="B14" t="n">
-        <v>-14.7074609625551</v>
+        <v>-21.1913714045142</v>
       </c>
       <c r="C14" t="n">
-        <v>-69.18760832676836</v>
+        <v>-78.67115958472911</v>
       </c>
       <c r="D14" t="n">
-        <v>36.81298924774102</v>
+        <v>36.15832140030287</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -736,13 +736,13 @@
         <v>44435</v>
       </c>
       <c r="B15" t="n">
-        <v>-37.22332255189198</v>
+        <v>-37.91077547976489</v>
       </c>
       <c r="C15" t="n">
-        <v>-92.097286970025</v>
+        <v>-95.04694424661996</v>
       </c>
       <c r="D15" t="n">
-        <v>19.78250045509948</v>
+        <v>21.25848805952339</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -756,13 +756,13 @@
         <v>44439</v>
       </c>
       <c r="B16" t="n">
-        <v>-30.18995647561556</v>
+        <v>-25.82100377735597</v>
       </c>
       <c r="C16" t="n">
-        <v>-84.27675199016832</v>
+        <v>-86.19548470052708</v>
       </c>
       <c r="D16" t="n">
-        <v>21.16776097976514</v>
+        <v>32.35821401854284</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -776,13 +776,13 @@
         <v>44442</v>
       </c>
       <c r="B17" t="n">
-        <v>-12.54423948417704</v>
+        <v>-21.71688372518557</v>
       </c>
       <c r="C17" t="n">
-        <v>-67.69883553973548</v>
+        <v>-79.21115627548888</v>
       </c>
       <c r="D17" t="n">
-        <v>42.56171431800087</v>
+        <v>35.17548304812583</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -796,13 +796,13 @@
         <v>44456</v>
       </c>
       <c r="B18" t="n">
-        <v>43.37984505837142</v>
+        <v>31.2607576237636</v>
       </c>
       <c r="C18" t="n">
-        <v>-9.772891927204364</v>
+        <v>-25.22971647822804</v>
       </c>
       <c r="D18" t="n">
-        <v>90.69305578850124</v>
+        <v>91.28327123149127</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -816,13 +816,13 @@
         <v>44460</v>
       </c>
       <c r="B19" t="n">
-        <v>30.91198530417466</v>
+        <v>35.9318898386137</v>
       </c>
       <c r="C19" t="n">
-        <v>-20.99949370632958</v>
+        <v>-18.9079151927255</v>
       </c>
       <c r="D19" t="n">
-        <v>85.62777759678362</v>
+        <v>93.42098699238865</v>
       </c>
       <c r="E19" t="n">
         <v>208</v>
@@ -836,13 +836,13 @@
         <v>44467</v>
       </c>
       <c r="B20" t="n">
-        <v>78.46238746645624</v>
+        <v>80.91063166846156</v>
       </c>
       <c r="C20" t="n">
-        <v>17.45963599296141</v>
+        <v>19.39165649756965</v>
       </c>
       <c r="D20" t="n">
-        <v>139.3331277276148</v>
+        <v>141.1456008496129</v>
       </c>
       <c r="E20" t="n">
         <v>72</v>
@@ -856,13 +856,13 @@
         <v>44474</v>
       </c>
       <c r="B21" t="n">
-        <v>65.30983610461107</v>
+        <v>57.51706970721466</v>
       </c>
       <c r="C21" t="n">
-        <v>6.367213810842959</v>
+        <v>-2.531361745605909</v>
       </c>
       <c r="D21" t="n">
-        <v>123.0169890085721</v>
+        <v>122.3068011096664</v>
       </c>
       <c r="E21" t="n">
         <v>40</v>
@@ -876,13 +876,13 @@
         <v>44481</v>
       </c>
       <c r="B22" t="n">
-        <v>74.87486394878621</v>
+        <v>67.62792644378013</v>
       </c>
       <c r="C22" t="n">
-        <v>21.36205301296977</v>
+        <v>6.285995729943307</v>
       </c>
       <c r="D22" t="n">
-        <v>134.7248054504504</v>
+        <v>124.3072892556546</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -896,13 +896,13 @@
         <v>44491</v>
       </c>
       <c r="B23" t="n">
-        <v>64.35184517903902</v>
+        <v>66.00930190159805</v>
       </c>
       <c r="C23" t="n">
-        <v>6.608892806699359</v>
+        <v>8.077228480282281</v>
       </c>
       <c r="D23" t="n">
-        <v>123.7796515587417</v>
+        <v>129.1744038885957</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
@@ -916,13 +916,13 @@
         <v>44523</v>
       </c>
       <c r="B24" t="n">
-        <v>-535.0911494982369</v>
+        <v>-200.3116293178053</v>
       </c>
       <c r="C24" t="n">
-        <v>-597.8142226665577</v>
+        <v>-261.9601795514183</v>
       </c>
       <c r="D24" t="n">
-        <v>-476.1594806320371</v>
+        <v>-142.6815151968247</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>44551</v>
       </c>
       <c r="B25" t="n">
-        <v>-2003.119198852677</v>
+        <v>-1711.633795008201</v>
       </c>
       <c r="C25" t="n">
-        <v>-2061.988163848338</v>
+        <v>-1774.968658634165</v>
       </c>
       <c r="D25" t="n">
-        <v>-1947.028500509323</v>
+        <v>-1652.268829255547</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -956,13 +956,13 @@
         <v>44558</v>
       </c>
       <c r="B26" t="n">
-        <v>-119.2168398263172</v>
+        <v>-123.5981694937807</v>
       </c>
       <c r="C26" t="n">
-        <v>-183.7916689023962</v>
+        <v>-187.4907504147176</v>
       </c>
       <c r="D26" t="n">
-        <v>-55.19253915766842</v>
+        <v>-61.89305591672272</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -976,13 +976,13 @@
         <v>44572</v>
       </c>
       <c r="B27" t="n">
-        <v>57.88076871796819</v>
+        <v>53.58152224074189</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.840008817924844</v>
+        <v>-8.053029711811856</v>
       </c>
       <c r="D27" t="n">
-        <v>122.3444168426725</v>
+        <v>114.0697355018575</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -996,13 +996,13 @@
         <v>44582</v>
       </c>
       <c r="B28" t="n">
-        <v>-7.873936688977707</v>
+        <v>-4.742935181311978</v>
       </c>
       <c r="C28" t="n">
-        <v>-72.52576276598477</v>
+        <v>-68.37222383284612</v>
       </c>
       <c r="D28" t="n">
-        <v>52.99507447335416</v>
+        <v>58.089350072316</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -1016,13 +1016,13 @@
         <v>44592</v>
       </c>
       <c r="B29" t="n">
-        <v>26.20192572341138</v>
+        <v>19.03365928060886</v>
       </c>
       <c r="C29" t="n">
-        <v>-39.77639609630786</v>
+        <v>-43.54640445219756</v>
       </c>
       <c r="D29" t="n">
-        <v>92.58251413709831</v>
+        <v>84.09833990291949</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1036,13 +1036,13 @@
         <v>44617</v>
       </c>
       <c r="B30" t="n">
-        <v>34.41740954645253</v>
+        <v>-9.638052137494839</v>
       </c>
       <c r="C30" t="n">
-        <v>-24.74089466872675</v>
+        <v>-67.03655373884474</v>
       </c>
       <c r="D30" t="n">
-        <v>101.4663830924038</v>
+        <v>56.68174903292262</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -1056,13 +1056,13 @@
         <v>44620</v>
       </c>
       <c r="B31" t="n">
-        <v>9.829343409272113</v>
+        <v>-20.13935554953923</v>
       </c>
       <c r="C31" t="n">
-        <v>-52.08581934815173</v>
+        <v>-83.61920537475382</v>
       </c>
       <c r="D31" t="n">
-        <v>74.93038063876556</v>
+        <v>42.5228546380829</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1076,13 +1076,13 @@
         <v>44624</v>
       </c>
       <c r="B32" t="n">
-        <v>-71.44101244899994</v>
+        <v>-78.76022151326623</v>
       </c>
       <c r="C32" t="n">
-        <v>-135.587113170669</v>
+        <v>-141.476347156366</v>
       </c>
       <c r="D32" t="n">
-        <v>-12.71504948446633</v>
+        <v>-14.85438107207028</v>
       </c>
       <c r="E32" t="n">
         <v>24</v>
@@ -1096,13 +1096,13 @@
         <v>44628</v>
       </c>
       <c r="B33" t="n">
-        <v>-86.50803369706939</v>
+        <v>-83.92608018439856</v>
       </c>
       <c r="C33" t="n">
-        <v>-149.7470636120842</v>
+        <v>-147.7073264576761</v>
       </c>
       <c r="D33" t="n">
-        <v>-18.56743741967259</v>
+        <v>-25.56039641570207</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1116,13 +1116,13 @@
         <v>44642</v>
       </c>
       <c r="B34" t="n">
-        <v>185.3309491995187</v>
+        <v>192.7197909589946</v>
       </c>
       <c r="C34" t="n">
-        <v>119.4137291716742</v>
+        <v>130.8645896961222</v>
       </c>
       <c r="D34" t="n">
-        <v>247.2105757288873</v>
+        <v>257.8997201060926</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -1136,13 +1136,13 @@
         <v>44750</v>
       </c>
       <c r="B35" t="n">
-        <v>-27.15627992935296</v>
+        <v>-21.76100850713975</v>
       </c>
       <c r="C35" t="n">
-        <v>-93.16050531875156</v>
+        <v>-89.39161405879236</v>
       </c>
       <c r="D35" t="n">
-        <v>43.38715660093932</v>
+        <v>46.7342866525677</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>44775</v>
       </c>
       <c r="B36" t="n">
-        <v>46.79436856731253</v>
+        <v>53.71161511330887</v>
       </c>
       <c r="C36" t="n">
-        <v>-21.24225577352171</v>
+        <v>-12.59308712527536</v>
       </c>
       <c r="D36" t="n">
-        <v>109.0832399984145</v>
+        <v>117.5173785952701</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -1176,13 +1176,13 @@
         <v>44782</v>
       </c>
       <c r="B37" t="n">
-        <v>-33.98512673376082</v>
+        <v>-28.67944484825539</v>
       </c>
       <c r="C37" t="n">
-        <v>-101.0541296683947</v>
+        <v>-96.84202405295267</v>
       </c>
       <c r="D37" t="n">
-        <v>28.29659261659789</v>
+        <v>35.17431166295795</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -1196,13 +1196,13 @@
         <v>44792</v>
       </c>
       <c r="B38" t="n">
-        <v>-23.27677792295775</v>
+        <v>-23.8165884996191</v>
       </c>
       <c r="C38" t="n">
-        <v>-81.79517494730999</v>
+        <v>-91.4799498432414</v>
       </c>
       <c r="D38" t="n">
-        <v>42.69842506324847</v>
+        <v>43.78470423397732</v>
       </c>
       <c r="E38" t="n">
         <v>32</v>
@@ -1277,22 +1277,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>196127.2501419155</v>
+        <v>182462.5247656054</v>
       </c>
       <c r="C2" t="n">
-        <v>442.8625634911079</v>
+        <v>427.1563235697271</v>
       </c>
       <c r="D2" t="n">
-        <v>263.6939298302075</v>
+        <v>260.2654228497971</v>
       </c>
       <c r="E2" t="n">
-        <v>1.867371416374823</v>
+        <v>2.04214848716392</v>
       </c>
       <c r="F2" t="n">
-        <v>1.611079243708857</v>
+        <v>1.797673987670565</v>
       </c>
       <c r="G2" t="n">
-        <v>1.242240632900298</v>
+        <v>1.563617970897767</v>
       </c>
       <c r="H2" t="n">
         <v>0.25</v>
@@ -1303,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4979.536170625564</v>
+        <v>4536.445072251386</v>
       </c>
       <c r="C3" t="n">
-        <v>70.56582863274238</v>
+        <v>67.35313706317906</v>
       </c>
       <c r="D3" t="n">
-        <v>52.73337508752678</v>
+        <v>49.11880209297706</v>
       </c>
       <c r="E3" t="n">
-        <v>2.365325209070955</v>
+        <v>2.217200986807119</v>
       </c>
       <c r="F3" t="n">
-        <v>1.943436139862986</v>
+        <v>1.806906368042374</v>
       </c>
       <c r="G3" t="n">
-        <v>1.319126950309614</v>
+        <v>1.287414957179619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -1329,25 +1329,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>3320.806279520055</v>
+        <v>3288.237825082051</v>
       </c>
       <c r="C4" t="n">
-        <v>57.62643733148923</v>
+        <v>57.34315848540304</v>
       </c>
       <c r="D4" t="n">
-        <v>35.76536452810856</v>
+        <v>42.12565324516445</v>
       </c>
       <c r="E4" t="n">
-        <v>1.653106114766975</v>
+        <v>2.650607139102213</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2286679261590141</v>
+        <v>1.936905120982415</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9478199402297532</v>
+        <v>1.524943304786413</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="5">
@@ -1355,22 +1355,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>255096.0308521359</v>
+        <v>195547.0743736989</v>
       </c>
       <c r="C5" t="n">
-        <v>505.070322680056</v>
+        <v>442.2070492130343</v>
       </c>
       <c r="D5" t="n">
-        <v>269.363146810304</v>
+        <v>254.3476665741673</v>
       </c>
       <c r="E5" t="n">
-        <v>16.98852746418373</v>
+        <v>11.21868008448746</v>
       </c>
       <c r="F5" t="n">
-        <v>2.267567797860646</v>
+        <v>2.39339824257071</v>
       </c>
       <c r="G5" t="n">
-        <v>1.619739895314967</v>
+        <v>1.635571934085036</v>
       </c>
       <c r="H5" t="n">
         <v>0.3181818181818181</v>

--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44281</v>
       </c>
       <c r="B2" t="n">
-        <v>-421.0191599010259</v>
+        <v>-421.0184435041979</v>
       </c>
       <c r="C2" t="n">
-        <v>-458.8154363082332</v>
+        <v>-455.1621545727915</v>
       </c>
       <c r="D2" t="n">
-        <v>-386.5318883776739</v>
+        <v>-386.0780209156455</v>
       </c>
       <c r="E2" t="n">
         <v>424</v>
@@ -496,13 +496,13 @@
         <v>44288</v>
       </c>
       <c r="B3" t="n">
-        <v>299.6442578474015</v>
+        <v>299.6442580836134</v>
       </c>
       <c r="C3" t="n">
-        <v>257.0302331260244</v>
+        <v>256.6265503582036</v>
       </c>
       <c r="D3" t="n">
-        <v>342.3689712826461</v>
+        <v>343.5803070490292</v>
       </c>
       <c r="E3" t="n">
         <v>232</v>
@@ -516,13 +516,13 @@
         <v>44292</v>
       </c>
       <c r="B4" t="n">
-        <v>-280.768468292982</v>
+        <v>-280.7684680511105</v>
       </c>
       <c r="C4" t="n">
-        <v>-324.6720069158266</v>
+        <v>-322.6981987182212</v>
       </c>
       <c r="D4" t="n">
-        <v>-238.693532516852</v>
+        <v>-240.4826625087645</v>
       </c>
       <c r="E4" t="n">
         <v>192</v>
@@ -536,13 +536,13 @@
         <v>44299</v>
       </c>
       <c r="B5" t="n">
-        <v>278.7282080359773</v>
+        <v>278.7323654909201</v>
       </c>
       <c r="C5" t="n">
-        <v>232.4839813070417</v>
+        <v>229.2677390586397</v>
       </c>
       <c r="D5" t="n">
-        <v>327.754471131153</v>
+        <v>325.9273649371628</v>
       </c>
       <c r="E5" t="n">
         <v>72</v>
@@ -556,13 +556,13 @@
         <v>44306</v>
       </c>
       <c r="B6" t="n">
-        <v>724.0121846863741</v>
+        <v>724.0121846863633</v>
       </c>
       <c r="C6" t="n">
-        <v>674.3085290397028</v>
+        <v>674.159418923056</v>
       </c>
       <c r="D6" t="n">
-        <v>773.4139781978059</v>
+        <v>771.7737437534489</v>
       </c>
       <c r="E6" t="n">
         <v>224</v>
@@ -576,13 +576,13 @@
         <v>44313</v>
       </c>
       <c r="B7" t="n">
-        <v>501.1339318064076</v>
+        <v>501.1339318075736</v>
       </c>
       <c r="C7" t="n">
-        <v>451.1234183241002</v>
+        <v>448.5101651231752</v>
       </c>
       <c r="D7" t="n">
-        <v>555.845674769869</v>
+        <v>553.1085734906845</v>
       </c>
       <c r="E7" t="n">
         <v>328</v>
@@ -596,13 +596,13 @@
         <v>44320</v>
       </c>
       <c r="B8" t="n">
-        <v>-235.9636716120141</v>
+        <v>-235.967345627628</v>
       </c>
       <c r="C8" t="n">
-        <v>-285.6590575359627</v>
+        <v>-284.8931815379231</v>
       </c>
       <c r="D8" t="n">
-        <v>-187.5617727503387</v>
+        <v>-184.4453115140607</v>
       </c>
       <c r="E8" t="n">
         <v>184</v>
@@ -616,13 +616,13 @@
         <v>44327</v>
       </c>
       <c r="B9" t="n">
-        <v>-508.9907132288262</v>
+        <v>-508.9907132289079</v>
       </c>
       <c r="C9" t="n">
-        <v>-561.5212527360646</v>
+        <v>-557.0948693801529</v>
       </c>
       <c r="D9" t="n">
-        <v>-461.2150883273821</v>
+        <v>-462.8384134283908</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -636,13 +636,13 @@
         <v>44344</v>
       </c>
       <c r="B10" t="n">
-        <v>295.9491884702573</v>
+        <v>295.9491662385027</v>
       </c>
       <c r="C10" t="n">
-        <v>241.5597889621419</v>
+        <v>243.2464939592454</v>
       </c>
       <c r="D10" t="n">
-        <v>347.7502379521129</v>
+        <v>351.4936798183473</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -656,13 +656,13 @@
         <v>44386</v>
       </c>
       <c r="B11" t="n">
-        <v>119.0565569666364</v>
+        <v>119.0565569634496</v>
       </c>
       <c r="C11" t="n">
-        <v>67.11741287930938</v>
+        <v>70.22093186035822</v>
       </c>
       <c r="D11" t="n">
-        <v>171.4560714509893</v>
+        <v>172.8832955213234</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -676,13 +676,13 @@
         <v>44414</v>
       </c>
       <c r="B12" t="n">
-        <v>-38.67744539435873</v>
+        <v>-38.67744539433599</v>
       </c>
       <c r="C12" t="n">
-        <v>-91.34121942642926</v>
+        <v>-94.21509665417202</v>
       </c>
       <c r="D12" t="n">
-        <v>13.05176370999674</v>
+        <v>15.50421474826893</v>
       </c>
       <c r="E12" t="n">
         <v>144</v>
@@ -696,13 +696,13 @@
         <v>44418</v>
       </c>
       <c r="B13" t="n">
-        <v>46.99048193571863</v>
+        <v>46.99048193572014</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.05005537598727</v>
+        <v>-7.305254066088913</v>
       </c>
       <c r="D13" t="n">
-        <v>101.0755773334039</v>
+        <v>102.1299132160493</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -716,13 +716,13 @@
         <v>44428</v>
       </c>
       <c r="B14" t="n">
-        <v>-21.1913714045142</v>
+        <v>-21.19137140458466</v>
       </c>
       <c r="C14" t="n">
-        <v>-78.67115958472911</v>
+        <v>-76.14180602726935</v>
       </c>
       <c r="D14" t="n">
-        <v>36.15832140030287</v>
+        <v>39.38102712272404</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -736,13 +736,13 @@
         <v>44435</v>
       </c>
       <c r="B15" t="n">
-        <v>-37.91077547976489</v>
+        <v>-37.91077547975446</v>
       </c>
       <c r="C15" t="n">
-        <v>-95.04694424661996</v>
+        <v>-95.49316000990727</v>
       </c>
       <c r="D15" t="n">
-        <v>21.25848805952339</v>
+        <v>19.49376211615565</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -756,13 +756,13 @@
         <v>44439</v>
       </c>
       <c r="B16" t="n">
-        <v>-25.82100377735597</v>
+        <v>-25.82100377739192</v>
       </c>
       <c r="C16" t="n">
-        <v>-86.19548470052708</v>
+        <v>-86.03565589738291</v>
       </c>
       <c r="D16" t="n">
-        <v>32.35821401854284</v>
+        <v>31.13018892069057</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -776,13 +776,13 @@
         <v>44442</v>
       </c>
       <c r="B17" t="n">
-        <v>-21.71688372518557</v>
+        <v>-21.71688372522183</v>
       </c>
       <c r="C17" t="n">
-        <v>-79.21115627548888</v>
+        <v>-74.90963591530344</v>
       </c>
       <c r="D17" t="n">
-        <v>35.17548304812583</v>
+        <v>37.19473769482824</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -796,13 +796,13 @@
         <v>44456</v>
       </c>
       <c r="B18" t="n">
-        <v>31.2607576237636</v>
+        <v>31.26075813072582</v>
       </c>
       <c r="C18" t="n">
-        <v>-25.22971647822804</v>
+        <v>-25.76806065104785</v>
       </c>
       <c r="D18" t="n">
-        <v>91.28327123149127</v>
+        <v>86.65739925661887</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -816,13 +816,13 @@
         <v>44460</v>
       </c>
       <c r="B19" t="n">
-        <v>35.9318898386137</v>
+        <v>35.93188967184511</v>
       </c>
       <c r="C19" t="n">
-        <v>-18.9079151927255</v>
+        <v>-26.71428900516028</v>
       </c>
       <c r="D19" t="n">
-        <v>93.42098699238865</v>
+        <v>88.87385077627347</v>
       </c>
       <c r="E19" t="n">
         <v>208</v>
@@ -836,13 +836,13 @@
         <v>44467</v>
       </c>
       <c r="B20" t="n">
-        <v>80.91063166846156</v>
+        <v>80.91063178473303</v>
       </c>
       <c r="C20" t="n">
-        <v>19.39165649756965</v>
+        <v>17.39510845051671</v>
       </c>
       <c r="D20" t="n">
-        <v>141.1456008496129</v>
+        <v>145.4746271434022</v>
       </c>
       <c r="E20" t="n">
         <v>72</v>
@@ -856,13 +856,13 @@
         <v>44474</v>
       </c>
       <c r="B21" t="n">
-        <v>57.51706970721466</v>
+        <v>57.51709486407336</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.531361745605909</v>
+        <v>-3.050293033165036</v>
       </c>
       <c r="D21" t="n">
-        <v>122.3068011096664</v>
+        <v>118.9642054196301</v>
       </c>
       <c r="E21" t="n">
         <v>40</v>
@@ -876,13 +876,13 @@
         <v>44481</v>
       </c>
       <c r="B22" t="n">
-        <v>67.62792644378013</v>
+        <v>67.62792644396002</v>
       </c>
       <c r="C22" t="n">
-        <v>6.285995729943307</v>
+        <v>11.33937961195073</v>
       </c>
       <c r="D22" t="n">
-        <v>124.3072892556546</v>
+        <v>128.8066282359007</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -896,13 +896,13 @@
         <v>44491</v>
       </c>
       <c r="B23" t="n">
-        <v>66.00930190159805</v>
+        <v>66.00930951825877</v>
       </c>
       <c r="C23" t="n">
-        <v>8.077228480282281</v>
+        <v>5.399989344742914</v>
       </c>
       <c r="D23" t="n">
-        <v>129.1744038885957</v>
+        <v>127.1779742073932</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
@@ -916,13 +916,13 @@
         <v>44523</v>
       </c>
       <c r="B24" t="n">
-        <v>-200.3116293178053</v>
+        <v>-200.3116293177786</v>
       </c>
       <c r="C24" t="n">
-        <v>-261.9601795514183</v>
+        <v>-258.6454596692604</v>
       </c>
       <c r="D24" t="n">
-        <v>-142.6815151968247</v>
+        <v>-141.3307372071646</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -936,13 +936,13 @@
         <v>44551</v>
       </c>
       <c r="B25" t="n">
-        <v>-1711.633795008201</v>
+        <v>-1711.633795008186</v>
       </c>
       <c r="C25" t="n">
-        <v>-1774.968658634165</v>
+        <v>-1770.565228755864</v>
       </c>
       <c r="D25" t="n">
-        <v>-1652.268829255547</v>
+        <v>-1651.680049704299</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -956,13 +956,13 @@
         <v>44558</v>
       </c>
       <c r="B26" t="n">
-        <v>-123.5981694937807</v>
+        <v>-123.5981694937885</v>
       </c>
       <c r="C26" t="n">
-        <v>-187.4907504147176</v>
+        <v>-186.2231219464375</v>
       </c>
       <c r="D26" t="n">
-        <v>-61.89305591672272</v>
+        <v>-56.55330058493109</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -976,13 +976,13 @@
         <v>44572</v>
       </c>
       <c r="B27" t="n">
-        <v>53.58152224074189</v>
+        <v>53.58152224129211</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.053029711811856</v>
+        <v>-12.77610315759653</v>
       </c>
       <c r="D27" t="n">
-        <v>114.0697355018575</v>
+        <v>117.39911263155</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -999,10 +999,10 @@
         <v>-4.742935181311978</v>
       </c>
       <c r="C28" t="n">
-        <v>-68.37222383284612</v>
+        <v>-67.91461555978452</v>
       </c>
       <c r="D28" t="n">
-        <v>58.089350072316</v>
+        <v>64.8519965416022</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -1016,13 +1016,13 @@
         <v>44592</v>
       </c>
       <c r="B29" t="n">
-        <v>19.03365928060886</v>
+        <v>19.0336592806059</v>
       </c>
       <c r="C29" t="n">
-        <v>-43.54640445219756</v>
+        <v>-42.70086995520273</v>
       </c>
       <c r="D29" t="n">
-        <v>84.09833990291949</v>
+        <v>84.05325969265783</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1036,13 +1036,13 @@
         <v>44617</v>
       </c>
       <c r="B30" t="n">
-        <v>-9.638052137494839</v>
+        <v>-9.638052137489808</v>
       </c>
       <c r="C30" t="n">
-        <v>-67.03655373884474</v>
+        <v>-72.5109384611435</v>
       </c>
       <c r="D30" t="n">
-        <v>56.68174903292262</v>
+        <v>52.7278692395095</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -1056,13 +1056,13 @@
         <v>44620</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.13935554953923</v>
+        <v>-20.13935554953416</v>
       </c>
       <c r="C31" t="n">
-        <v>-83.61920537475382</v>
+        <v>-87.39338675950329</v>
       </c>
       <c r="D31" t="n">
-        <v>42.5228546380829</v>
+        <v>41.1182503513547</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1076,13 +1076,13 @@
         <v>44624</v>
       </c>
       <c r="B32" t="n">
-        <v>-78.76022151326623</v>
+        <v>-78.7602206459579</v>
       </c>
       <c r="C32" t="n">
-        <v>-141.476347156366</v>
+        <v>-140.2594161061043</v>
       </c>
       <c r="D32" t="n">
-        <v>-14.85438107207028</v>
+        <v>-14.82685661708834</v>
       </c>
       <c r="E32" t="n">
         <v>24</v>
@@ -1096,13 +1096,13 @@
         <v>44628</v>
       </c>
       <c r="B33" t="n">
-        <v>-83.92608018439856</v>
+        <v>-83.92607930830988</v>
       </c>
       <c r="C33" t="n">
-        <v>-147.7073264576761</v>
+        <v>-145.3473000209661</v>
       </c>
       <c r="D33" t="n">
-        <v>-25.56039641570207</v>
+        <v>-27.31640784870047</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1116,13 +1116,13 @@
         <v>44642</v>
       </c>
       <c r="B34" t="n">
-        <v>192.7197909589946</v>
+        <v>192.7198007505936</v>
       </c>
       <c r="C34" t="n">
-        <v>130.8645896961222</v>
+        <v>128.2569259149414</v>
       </c>
       <c r="D34" t="n">
-        <v>257.8997201060926</v>
+        <v>258.0761906357325</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -1136,13 +1136,13 @@
         <v>44750</v>
       </c>
       <c r="B35" t="n">
-        <v>-21.76100850713975</v>
+        <v>-21.76100850701378</v>
       </c>
       <c r="C35" t="n">
-        <v>-89.39161405879236</v>
+        <v>-87.15515954716581</v>
       </c>
       <c r="D35" t="n">
-        <v>46.7342866525677</v>
+        <v>42.5211599754336</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -1156,13 +1156,13 @@
         <v>44775</v>
       </c>
       <c r="B36" t="n">
-        <v>53.71161511330887</v>
+        <v>53.71161742507297</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.59308712527536</v>
+        <v>-11.46012236643797</v>
       </c>
       <c r="D36" t="n">
-        <v>117.5173785952701</v>
+        <v>120.5015779352028</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -1176,13 +1176,13 @@
         <v>44782</v>
       </c>
       <c r="B37" t="n">
-        <v>-28.67944484825539</v>
+        <v>-28.67944484839339</v>
       </c>
       <c r="C37" t="n">
-        <v>-96.84202405295267</v>
+        <v>-96.63148132846163</v>
       </c>
       <c r="D37" t="n">
-        <v>35.17431166295795</v>
+        <v>31.86396818216737</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -1196,13 +1196,13 @@
         <v>44792</v>
       </c>
       <c r="B38" t="n">
-        <v>-23.8165884996191</v>
+        <v>-23.8165884996158</v>
       </c>
       <c r="C38" t="n">
-        <v>-91.4799498432414</v>
+        <v>-85.90205907943206</v>
       </c>
       <c r="D38" t="n">
-        <v>43.78470423397732</v>
+        <v>43.5786513892287</v>
       </c>
       <c r="E38" t="n">
         <v>32</v>
@@ -1277,22 +1277,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>182462.5247656054</v>
+        <v>182462.2220446376</v>
       </c>
       <c r="C2" t="n">
-        <v>427.1563235697271</v>
+        <v>427.1559692251035</v>
       </c>
       <c r="D2" t="n">
-        <v>260.2654228497971</v>
+        <v>260.2652435928147</v>
       </c>
       <c r="E2" t="n">
-        <v>2.04214848716392</v>
+        <v>2.042148055980127</v>
       </c>
       <c r="F2" t="n">
-        <v>1.797673987670565</v>
+        <v>1.797673142862827</v>
       </c>
       <c r="G2" t="n">
-        <v>1.563617970897767</v>
+        <v>1.563617971091653</v>
       </c>
       <c r="H2" t="n">
         <v>0.25</v>
@@ -1303,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>4536.445072251386</v>
+        <v>4536.445200273011</v>
       </c>
       <c r="C3" t="n">
-        <v>67.35313706317906</v>
+        <v>67.35313801355518</v>
       </c>
       <c r="D3" t="n">
-        <v>49.11880209297706</v>
+        <v>49.11880517653464</v>
       </c>
       <c r="E3" t="n">
-        <v>2.217200986807119</v>
+        <v>2.217201089066935</v>
       </c>
       <c r="F3" t="n">
-        <v>1.806906368042374</v>
+        <v>1.806906368043498</v>
       </c>
       <c r="G3" t="n">
-        <v>1.287414957179619</v>
+        <v>1.287415006786085</v>
       </c>
       <c r="H3" t="n">
-        <v>0.888888888888889</v>
+        <v>0.7777777777777777</v>
       </c>
     </row>
     <row r="4">
@@ -1329,25 +1329,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>3288.237825082051</v>
+        <v>3288.237910429707</v>
       </c>
       <c r="C4" t="n">
-        <v>57.34315848540304</v>
+        <v>57.34315922958646</v>
       </c>
       <c r="D4" t="n">
-        <v>42.12565324516445</v>
+        <v>42.1256553008678</v>
       </c>
       <c r="E4" t="n">
-        <v>2.650607139102213</v>
+        <v>2.650607207275213</v>
       </c>
       <c r="F4" t="n">
-        <v>1.936905120982415</v>
+        <v>1.936905120982509</v>
       </c>
       <c r="G4" t="n">
-        <v>1.524943304786413</v>
+        <v>1.52494333785739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8518518518518517</v>
       </c>
     </row>
     <row r="5">
@@ -1355,22 +1355,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>195547.0743736989</v>
+        <v>195547.2923628766</v>
       </c>
       <c r="C5" t="n">
-        <v>442.2070492130343</v>
+        <v>442.2072956915982</v>
       </c>
       <c r="D5" t="n">
-        <v>254.3476665741673</v>
+        <v>254.348022256899</v>
       </c>
       <c r="E5" t="n">
-        <v>11.21868008448746</v>
+        <v>11.21868352705196</v>
       </c>
       <c r="F5" t="n">
-        <v>2.39339824257071</v>
+        <v>2.393398241943038</v>
       </c>
       <c r="G5" t="n">
-        <v>1.635571934085036</v>
+        <v>1.635572380201386</v>
       </c>
       <c r="H5" t="n">
         <v>0.3181818181818181</v>

--- a/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
+++ b/modelos/OBAFAR4425017/OBAFAR4425017_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>-421.0184435041979</v>
       </c>
       <c r="C2" t="n">
-        <v>-455.1621545727915</v>
+        <v>-454.8666639849388</v>
       </c>
       <c r="D2" t="n">
-        <v>-386.0780209156455</v>
+        <v>-384.9313909875812</v>
       </c>
       <c r="E2" t="n">
         <v>424</v>
@@ -499,10 +499,10 @@
         <v>299.6442580836134</v>
       </c>
       <c r="C3" t="n">
-        <v>256.6265503582036</v>
+        <v>257.0905512557878</v>
       </c>
       <c r="D3" t="n">
-        <v>343.5803070490292</v>
+        <v>341.5255384250395</v>
       </c>
       <c r="E3" t="n">
         <v>232</v>
@@ -519,10 +519,10 @@
         <v>-280.7684680511105</v>
       </c>
       <c r="C4" t="n">
-        <v>-322.6981987182212</v>
+        <v>-323.7360679089328</v>
       </c>
       <c r="D4" t="n">
-        <v>-240.4826625087645</v>
+        <v>-237.1247818755276</v>
       </c>
       <c r="E4" t="n">
         <v>192</v>
@@ -539,10 +539,10 @@
         <v>278.7323654909201</v>
       </c>
       <c r="C5" t="n">
-        <v>229.2677390586397</v>
+        <v>225.5593443149256</v>
       </c>
       <c r="D5" t="n">
-        <v>325.9273649371628</v>
+        <v>324.9586630813931</v>
       </c>
       <c r="E5" t="n">
         <v>72</v>
@@ -559,10 +559,10 @@
         <v>724.0121846863633</v>
       </c>
       <c r="C6" t="n">
-        <v>674.159418923056</v>
+        <v>671.8903055079619</v>
       </c>
       <c r="D6" t="n">
-        <v>771.7737437534489</v>
+        <v>775.3600862051849</v>
       </c>
       <c r="E6" t="n">
         <v>224</v>
@@ -579,10 +579,10 @@
         <v>501.1339318075736</v>
       </c>
       <c r="C7" t="n">
-        <v>448.5101651231752</v>
+        <v>449.0234738497912</v>
       </c>
       <c r="D7" t="n">
-        <v>553.1085734906845</v>
+        <v>549.6747323075342</v>
       </c>
       <c r="E7" t="n">
         <v>328</v>
@@ -599,10 +599,10 @@
         <v>-235.967345627628</v>
       </c>
       <c r="C8" t="n">
-        <v>-284.8931815379231</v>
+        <v>-284.1144695738202</v>
       </c>
       <c r="D8" t="n">
-        <v>-184.4453115140607</v>
+        <v>-189.8260078703239</v>
       </c>
       <c r="E8" t="n">
         <v>184</v>
@@ -619,10 +619,10 @@
         <v>-508.9907132289079</v>
       </c>
       <c r="C9" t="n">
-        <v>-557.0948693801529</v>
+        <v>-562.4890076575716</v>
       </c>
       <c r="D9" t="n">
-        <v>-462.8384134283908</v>
+        <v>-458.8825431500593</v>
       </c>
       <c r="E9" t="n">
         <v>80</v>
@@ -639,10 +639,10 @@
         <v>295.9491662385027</v>
       </c>
       <c r="C10" t="n">
-        <v>243.2464939592454</v>
+        <v>244.7118426388824</v>
       </c>
       <c r="D10" t="n">
-        <v>351.4936798183473</v>
+        <v>348.9378161070384</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
@@ -659,10 +659,10 @@
         <v>119.0565569634496</v>
       </c>
       <c r="C11" t="n">
-        <v>70.22093186035822</v>
+        <v>63.30131570278785</v>
       </c>
       <c r="D11" t="n">
-        <v>172.8832955213234</v>
+        <v>174.0496255033758</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
@@ -679,10 +679,10 @@
         <v>-38.67744539433599</v>
       </c>
       <c r="C12" t="n">
-        <v>-94.21509665417202</v>
+        <v>-94.75729338723393</v>
       </c>
       <c r="D12" t="n">
-        <v>15.50421474826893</v>
+        <v>15.12313093864468</v>
       </c>
       <c r="E12" t="n">
         <v>144</v>
@@ -699,10 +699,10 @@
         <v>46.99048193572014</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.305254066088913</v>
+        <v>-8.014500615016464</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1299132160493</v>
+        <v>104.8270488613174</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
@@ -719,10 +719,10 @@
         <v>-21.19137140458466</v>
       </c>
       <c r="C14" t="n">
-        <v>-76.14180602726935</v>
+        <v>-77.55945432622218</v>
       </c>
       <c r="D14" t="n">
-        <v>39.38102712272404</v>
+        <v>37.17925053740273</v>
       </c>
       <c r="E14" t="n">
         <v>16</v>
@@ -739,10 +739,10 @@
         <v>-37.91077547975446</v>
       </c>
       <c r="C15" t="n">
-        <v>-95.49316000990727</v>
+        <v>-91.76793016511591</v>
       </c>
       <c r="D15" t="n">
-        <v>19.49376211615565</v>
+        <v>17.79336443572999</v>
       </c>
       <c r="E15" t="n">
         <v>32</v>
@@ -759,10 +759,10 @@
         <v>-25.82100377739192</v>
       </c>
       <c r="C16" t="n">
-        <v>-86.03565589738291</v>
+        <v>-87.04484247007329</v>
       </c>
       <c r="D16" t="n">
-        <v>31.13018892069057</v>
+        <v>28.9728510291085</v>
       </c>
       <c r="E16" t="n">
         <v>32</v>
@@ -779,10 +779,10 @@
         <v>-21.71688372522183</v>
       </c>
       <c r="C17" t="n">
-        <v>-74.90963591530344</v>
+        <v>-75.97311609410863</v>
       </c>
       <c r="D17" t="n">
-        <v>37.19473769482824</v>
+        <v>32.53698365518986</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
@@ -799,10 +799,10 @@
         <v>31.26075813072582</v>
       </c>
       <c r="C18" t="n">
-        <v>-25.76806065104785</v>
+        <v>-24.30546785138243</v>
       </c>
       <c r="D18" t="n">
-        <v>86.65739925661887</v>
+        <v>91.37773878111223</v>
       </c>
       <c r="E18" t="n">
         <v>40</v>
@@ -819,10 +819,10 @@
         <v>35.93188967184511</v>
       </c>
       <c r="C19" t="n">
-        <v>-26.71428900516028</v>
+        <v>-22.02880175462091</v>
       </c>
       <c r="D19" t="n">
-        <v>88.87385077627347</v>
+        <v>90.97463658241662</v>
       </c>
       <c r="E19" t="n">
         <v>208</v>
@@ -839,10 +839,10 @@
         <v>80.91063178473303</v>
       </c>
       <c r="C20" t="n">
-        <v>17.39510845051671</v>
+        <v>17.81254574735608</v>
       </c>
       <c r="D20" t="n">
-        <v>145.4746271434022</v>
+        <v>141.8333984100465</v>
       </c>
       <c r="E20" t="n">
         <v>72</v>
@@ -859,10 +859,10 @@
         <v>57.51709486407336</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.050293033165036</v>
+        <v>-5.414177635528241</v>
       </c>
       <c r="D21" t="n">
-        <v>118.9642054196301</v>
+        <v>117.320937397628</v>
       </c>
       <c r="E21" t="n">
         <v>40</v>
@@ -879,10 +879,10 @@
         <v>67.62792644396002</v>
       </c>
       <c r="C22" t="n">
-        <v>11.33937961195073</v>
+        <v>6.176723473790351</v>
       </c>
       <c r="D22" t="n">
-        <v>128.8066282359007</v>
+        <v>124.9059631555057</v>
       </c>
       <c r="E22" t="n">
         <v>16</v>
@@ -899,10 +899,10 @@
         <v>66.00930951825877</v>
       </c>
       <c r="C23" t="n">
-        <v>5.399989344742914</v>
+        <v>1.710684896718935</v>
       </c>
       <c r="D23" t="n">
-        <v>127.1779742073932</v>
+        <v>125.0008635432863</v>
       </c>
       <c r="E23" t="n">
         <v>24</v>
@@ -919,10 +919,10 @@
         <v>-200.3116293177786</v>
       </c>
       <c r="C24" t="n">
-        <v>-258.6454596692604</v>
+        <v>-262.543611000013</v>
       </c>
       <c r="D24" t="n">
-        <v>-141.3307372071646</v>
+        <v>-142.1428132785609</v>
       </c>
       <c r="E24" t="n">
         <v>8</v>
@@ -939,10 +939,10 @@
         <v>-1711.633795008186</v>
       </c>
       <c r="C25" t="n">
-        <v>-1770.565228755864</v>
+        <v>-1764.034465150076</v>
       </c>
       <c r="D25" t="n">
-        <v>-1651.680049704299</v>
+        <v>-1654.593138400568</v>
       </c>
       <c r="E25" t="n">
         <v>16</v>
@@ -959,10 +959,10 @@
         <v>-123.5981694937885</v>
       </c>
       <c r="C26" t="n">
-        <v>-186.2231219464375</v>
+        <v>-184.9743663788004</v>
       </c>
       <c r="D26" t="n">
-        <v>-56.55330058493109</v>
+        <v>-57.90750885200097</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
@@ -979,10 +979,10 @@
         <v>53.58152224129211</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.77610315759653</v>
+        <v>-4.940828476887296</v>
       </c>
       <c r="D27" t="n">
-        <v>117.39911263155</v>
+        <v>115.5467348304881</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -999,10 +999,10 @@
         <v>-4.742935181311978</v>
       </c>
       <c r="C28" t="n">
-        <v>-67.91461555978452</v>
+        <v>-68.13570718887418</v>
       </c>
       <c r="D28" t="n">
-        <v>64.8519965416022</v>
+        <v>58.37428206182362</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -1019,10 +1019,10 @@
         <v>19.0336592806059</v>
       </c>
       <c r="C29" t="n">
-        <v>-42.70086995520273</v>
+        <v>-43.9337548072608</v>
       </c>
       <c r="D29" t="n">
-        <v>84.05325969265783</v>
+        <v>83.55953418496958</v>
       </c>
       <c r="E29" t="n">
         <v>8</v>
@@ -1039,10 +1039,10 @@
         <v>-9.638052137489808</v>
       </c>
       <c r="C30" t="n">
-        <v>-72.5109384611435</v>
+        <v>-76.16679030865376</v>
       </c>
       <c r="D30" t="n">
-        <v>52.7278692395095</v>
+        <v>52.60928633955227</v>
       </c>
       <c r="E30" t="n">
         <v>16</v>
@@ -1059,10 +1059,10 @@
         <v>-20.13935554953416</v>
       </c>
       <c r="C31" t="n">
-        <v>-87.39338675950329</v>
+        <v>-82.11131162736518</v>
       </c>
       <c r="D31" t="n">
-        <v>41.1182503513547</v>
+        <v>40.83279932916135</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
@@ -1079,10 +1079,10 @@
         <v>-78.7602206459579</v>
       </c>
       <c r="C32" t="n">
-        <v>-140.2594161061043</v>
+        <v>-139.631439781385</v>
       </c>
       <c r="D32" t="n">
-        <v>-14.82685661708834</v>
+        <v>-19.05756543352892</v>
       </c>
       <c r="E32" t="n">
         <v>24</v>
@@ -1099,10 +1099,10 @@
         <v>-83.92607930830988</v>
       </c>
       <c r="C33" t="n">
-        <v>-145.3473000209661</v>
+        <v>-146.3246909656647</v>
       </c>
       <c r="D33" t="n">
-        <v>-27.31640784870047</v>
+        <v>-22.53826638149074</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
@@ -1119,10 +1119,10 @@
         <v>192.7198007505936</v>
       </c>
       <c r="C34" t="n">
-        <v>128.2569259149414</v>
+        <v>131.2918884894501</v>
       </c>
       <c r="D34" t="n">
-        <v>258.0761906357325</v>
+        <v>260.2291470336936</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
@@ -1139,10 +1139,10 @@
         <v>-21.76100850701378</v>
       </c>
       <c r="C35" t="n">
-        <v>-87.15515954716581</v>
+        <v>-89.94358333481408</v>
       </c>
       <c r="D35" t="n">
-        <v>42.5211599754336</v>
+        <v>44.77108874584424</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
@@ -1159,10 +1159,10 @@
         <v>53.71161742507297</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.46012236643797</v>
+        <v>-13.0609115863176</v>
       </c>
       <c r="D36" t="n">
-        <v>120.5015779352028</v>
+        <v>115.8116243723739</v>
       </c>
       <c r="E36" t="n">
         <v>8</v>
@@ -1179,10 +1179,10 @@
         <v>-28.67944484839339</v>
       </c>
       <c r="C37" t="n">
-        <v>-96.63148132846163</v>
+        <v>-94.54822969690413</v>
       </c>
       <c r="D37" t="n">
-        <v>31.86396818216737</v>
+        <v>35.94299588456159</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
@@ -1199,10 +1199,10 @@
         <v>-23.8165884996158</v>
       </c>
       <c r="C38" t="n">
-        <v>-85.90205907943206</v>
+        <v>-85.45077177396159</v>
       </c>
       <c r="D38" t="n">
-        <v>43.5786513892287</v>
+        <v>41.59843951049916</v>
       </c>
       <c r="E38" t="n">
         <v>32</v>
